--- a/biology/Zoologie/Atelostomata/Atelostomata.xlsx
+++ b/biology/Zoologie/Atelostomata/Atelostomata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Atelostomata forment un super-ordre d'oursins irréguliers.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des oursins irréguliers : ils ne sont pas ronds mais ovoïdes (parfois en forme de cœur bombé), avec la bouche à l'avant et l'anus à l'arrière (au lieu d'être au centre des faces orale et aborale). Ils ont perdu leur appareil masticateur (Lanterne d'Aristote) au cours de l'évolution, car ils se nourrissent en filtrant le sédiment[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des oursins irréguliers : ils ne sont pas ronds mais ovoïdes (parfois en forme de cœur bombé), avec la bouche à l'avant et l'anus à l'arrière (au lieu d'être au centre des faces orale et aborale). Ils ont perdu leur appareil masticateur (Lanterne d'Aristote) au cours de l'évolution, car ils se nourrissent en filtrant le sédiment.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Selon World Register of Marine Species                               (2 octobre 2013)[2] : ___
+Selon World Register of Marine Species                               (2 octobre 2013) : ___
 ordre Holasteroida (Durham &amp; Melville, 1957)
 Famille Hemipneustidae (Lambert, 1917) †
 Sous-ordre Meridosternata (Lovén, 1883)
